--- a/inference2/Proofs/modular_stability.xlsx
+++ b/inference2/Proofs/modular_stability.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>date</t>
   </si>
@@ -118,6 +118,12 @@
     <t>21-Feb</t>
   </si>
   <si>
+    <t>22-Feb</t>
+  </si>
+  <si>
+    <t>23-Feb</t>
+  </si>
+  <si>
     <t>put_words_in_slots</t>
   </si>
   <si>
@@ -262,6 +268,9 @@
     <t>0.15</t>
   </si>
   <si>
+    <t>0.33</t>
+  </si>
+  <si>
     <t>column b is the number of lines I wrote in 6 hours not counting deletions</t>
   </si>
   <si>
@@ -305,6 +314,9 @@
   </si>
   <si>
     <t>0.88</t>
+  </si>
+  <si>
+    <t>0.89</t>
   </si>
 </sst>
 </file>
@@ -319,14 +331,12 @@
   <fonts count="5">
     <font>
       <name val="Times New Roman"/>
-      <charset val="238"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
-      <charset val="238"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -369,10 +379,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+  <cellStyleXfs count="69">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
@@ -435,6 +445,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
@@ -464,7 +475,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="69">
     <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
     <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="2"/>
@@ -530,9 +541,10 @@
     <cellStyle name="Normal 64" xfId="62"/>
     <cellStyle name="Normal 65" xfId="63"/>
     <cellStyle name="Normal 66" xfId="64"/>
-    <cellStyle name="Normal 7" xfId="65"/>
-    <cellStyle name="Normal 8" xfId="66"/>
-    <cellStyle name="Normal 9" xfId="67"/>
+    <cellStyle name="Normal 67" xfId="65"/>
+    <cellStyle name="Normal 7" xfId="66"/>
+    <cellStyle name="Normal 8" xfId="67"/>
+    <cellStyle name="Normal 9" xfId="68"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
@@ -865,7 +877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="E16" sqref="E16"/>
@@ -1397,6 +1409,34 @@
         <v/>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5161</v>
+      </c>
+      <c r="C30" t="n">
+        <v>317</v>
+      </c>
+      <c r="D30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5168</v>
+      </c>
+      <c r="C31" t="n">
+        <v>317</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
@@ -1409,7 +1449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="U9" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="AF27" sqref="AF27"/>
@@ -1424,150 +1464,150 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AD1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" t="s">
         <v>51</v>
       </c>
-      <c r="AB2" t="s">
-        <v>49</v>
-      </c>
       <c r="AC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" t="s">
-        <v>49</v>
-      </c>
       <c r="AE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" t="s">
-        <v>49</v>
-      </c>
       <c r="AG2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1647,7 +1687,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -2148,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="AB10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -3219,7 +3259,7 @@
         <v>6</v>
       </c>
       <c r="AD22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -3602,7 +3642,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3893,6 +3933,196 @@
         <v>325</v>
       </c>
       <c r="AE29" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>333</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>446</v>
+      </c>
+      <c r="G30" t="n">
+        <v>26</v>
+      </c>
+      <c r="H30" t="n">
+        <v>450</v>
+      </c>
+      <c r="I30" t="n">
+        <v>35</v>
+      </c>
+      <c r="J30" t="n">
+        <v>236</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14</v>
+      </c>
+      <c r="L30" t="n">
+        <v>425</v>
+      </c>
+      <c r="M30" t="n">
+        <v>26</v>
+      </c>
+      <c r="N30" t="n">
+        <v>538</v>
+      </c>
+      <c r="O30" t="n">
+        <v>29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>776</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>48</v>
+      </c>
+      <c r="R30" t="n">
+        <v>140</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="n">
+        <v>199</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10</v>
+      </c>
+      <c r="V30" t="n">
+        <v>364</v>
+      </c>
+      <c r="W30" t="n">
+        <v>17</v>
+      </c>
+      <c r="X30" t="n">
+        <v>328</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>489</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>327</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="n">
+        <v>28</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>446</v>
+      </c>
+      <c r="G31" t="n">
+        <v>26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>450</v>
+      </c>
+      <c r="I31" t="n">
+        <v>35</v>
+      </c>
+      <c r="J31" t="n">
+        <v>236</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14</v>
+      </c>
+      <c r="L31" t="n">
+        <v>425</v>
+      </c>
+      <c r="M31" t="n">
+        <v>26</v>
+      </c>
+      <c r="N31" t="n">
+        <v>538</v>
+      </c>
+      <c r="O31" t="n">
+        <v>29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>48</v>
+      </c>
+      <c r="R31" t="n">
+        <v>140</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="n">
+        <v>199</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" t="n">
+        <v>364</v>
+      </c>
+      <c r="W31" t="n">
+        <v>17</v>
+      </c>
+      <c r="X31" t="n">
+        <v>328</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>489</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>82</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>332</v>
+      </c>
+      <c r="AE31" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3908,7 +4138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:I206"/>
   <sheetViews>
     <sheetView showRuler="0" tabSelected="1" topLeftCell="A177" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="E197" sqref="E197"/>
@@ -3928,7 +4158,7 @@
       </c>
       <c r="C1" s="5" t="n"/>
       <c r="H1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3939,7 +4169,7 @@
       </c>
       <c r="C2" s="5" t="n"/>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4383,7 +4613,7 @@
         <v/>
       </c>
       <c r="E47" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4614,7 +4844,7 @@
         <v/>
       </c>
       <c r="E69" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4949,7 +5179,7 @@
         <v/>
       </c>
       <c r="F101" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5771,7 +6001,7 @@
         <v>25</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5785,7 +6015,7 @@
         <v>24</v>
       </c>
       <c r="E173" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5802,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5816,16 +6046,16 @@
         <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F175" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H175" s="11" t="n">
         <v>1.92</v>
       </c>
       <c r="I175" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5842,10 +6072,10 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F176" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H176" s="11" t="n">
         <v>1.33</v>
@@ -5862,7 +6092,7 @@
         <v>22</v>
       </c>
       <c r="E177" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5876,7 +6106,7 @@
         <v>30</v>
       </c>
       <c r="E178" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5890,7 +6120,7 @@
         <v>31</v>
       </c>
       <c r="E179" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5907,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5921,10 +6151,10 @@
         <v>34</v>
       </c>
       <c r="E181" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F181" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5938,7 +6168,7 @@
         <v>36</v>
       </c>
       <c r="E182" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5952,7 +6182,7 @@
         <v>32</v>
       </c>
       <c r="E183" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5966,7 +6196,7 @@
         <v>31</v>
       </c>
       <c r="E184" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5980,7 +6210,7 @@
         <v>32</v>
       </c>
       <c r="E185" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5997,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6011,7 +6241,7 @@
         <v>37</v>
       </c>
       <c r="E187" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6025,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="E188" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6039,7 +6269,7 @@
         <v>37</v>
       </c>
       <c r="E189" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6053,7 +6283,7 @@
         <v>32</v>
       </c>
       <c r="E190" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6067,7 +6297,7 @@
         <v>34</v>
       </c>
       <c r="E191" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6081,7 +6311,7 @@
         <v>35</v>
       </c>
       <c r="E192" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6095,7 +6325,7 @@
         <v>30</v>
       </c>
       <c r="E193" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6109,7 +6339,7 @@
         <v>32</v>
       </c>
       <c r="E194" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6126,10 +6356,10 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F195" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I195" t="n">
         <v>1.08</v>
@@ -6160,7 +6390,7 @@
         <v>34</v>
       </c>
       <c r="E197" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6188,7 +6418,7 @@
         <v>36</v>
       </c>
       <c r="E199" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6202,10 +6432,80 @@
         <v>32</v>
       </c>
       <c r="E200" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>33</v>
+      </c>
+      <c r="B201" t="n">
+        <v>43</v>
+      </c>
+      <c r="C201" t="n">
+        <v>34</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>33</v>
+      </c>
+      <c r="B202" t="n">
+        <v>53</v>
+      </c>
+      <c r="C202" t="n">
+        <v>36</v>
+      </c>
+      <c r="E202" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" t="n">
+        <v>32</v>
+      </c>
+      <c r="C203" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" t="n">
+        <v>37</v>
+      </c>
+      <c r="C204" t="n">
+        <v>35</v>
+      </c>
+      <c r="E204" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" t="n">
+        <v>11</v>
+      </c>
+      <c r="C205" t="n">
+        <v>33</v>
+      </c>
+      <c r="E205" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
@@ -6218,7 +6518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150">
       <selection activeCell="C27" sqref="C27"/>
@@ -6232,7 +6532,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="I1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6250,7 +6550,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6268,7 +6568,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6286,7 +6586,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6304,7 +6604,7 @@
         <v>22.33333333333333</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6497,7 +6797,7 @@
         <v>163</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E16" t="n">
         <v>27</v>
@@ -6517,7 +6817,7 @@
         <v>154</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
@@ -6537,7 +6837,7 @@
         <v>230</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E18" t="n">
         <v>38</v>
@@ -6557,7 +6857,7 @@
         <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E19" t="n">
         <v>29</v>
@@ -6577,7 +6877,7 @@
         <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E20" t="n">
         <v>25</v>
@@ -6597,7 +6897,7 @@
         <v>139</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E21" t="n">
         <v>23</v>
@@ -6637,7 +6937,7 @@
         <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E23" t="n">
         <v>28</v>
@@ -6657,7 +6957,7 @@
         <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
@@ -6677,7 +6977,7 @@
         <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
@@ -6717,7 +7017,7 @@
         <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
@@ -6737,7 +7037,7 @@
         <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E28" t="n">
         <v>28</v>
@@ -6757,13 +7057,33 @@
         <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E29" t="n">
         <v>27</v>
       </c>
       <c r="F29" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="n">
+        <v>204</v>
+      </c>
+      <c r="C30" t="n">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/inference2/Proofs/modular_stability.xlsx
+++ b/inference2/Proofs/modular_stability.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>date</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>0.89</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1431,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>5168</v>
+        <v>5211</v>
       </c>
       <c r="C31" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D31" t="n">
         <v>15</v>
@@ -4042,7 +4045,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -4060,10 +4063,10 @@
         <v>35</v>
       </c>
       <c r="J31" t="n">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="K31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
         <v>425</v>
@@ -4072,7 +4075,7 @@
         <v>26</v>
       </c>
       <c r="N31" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O31" t="n">
         <v>29</v>
@@ -4108,7 +4111,7 @@
         <v>21</v>
       </c>
       <c r="Z31" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AA31" t="n">
         <v>32</v>
@@ -4120,10 +4123,10 @@
         <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="AE31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4138,7 +4141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView showRuler="0" tabSelected="1" topLeftCell="A177" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="E197" sqref="E197"/>
@@ -6505,7 +6508,38 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:9"/>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" t="n">
+        <v>46</v>
+      </c>
+      <c r="C206" t="n">
+        <v>37</v>
+      </c>
+      <c r="E206" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" t="n">
+        <v>34</v>
+      </c>
+      <c r="C207" t="n">
+        <v>35</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
@@ -6518,7 +6552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150">
       <selection activeCell="C27" sqref="C27"/>
@@ -7086,6 +7120,26 @@
         <v>27</v>
       </c>
     </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="n">
+        <v>213</v>
+      </c>
+      <c r="C31" t="n">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="n">
+        <v>24</v>
+      </c>
+      <c r="F31" t="n">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="4294967292" orientation="portrait" verticalDpi="4294967292"/>
